--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1126,156 +1126,156 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Spot-Check</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3674,418 +3674,418 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" t="n">
         <v>4</v>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" t="n">
         <v>4</v>
       </c>
-      <c r="E65" s="2" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>4</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" t="n">
         <v>4</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" t="n">
         <v>6</v>
       </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="inlineStr">
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" t="n">
         <v>4</v>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" t="n">
         <v>7</v>
       </c>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="2" t="inlineStr">
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" t="n">
         <v>4</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" t="n">
         <v>8</v>
       </c>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" t="n">
         <v>4</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" t="n">
         <v>9</v>
       </c>
-      <c r="E70" s="2" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L70" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
+      <c r="A104" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" t="n">
+      <c r="D104" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F104" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="G104" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K104" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
+      <c r="A105" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" t="n">
+      <c r="D105" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F105" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="G105" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K105" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
+      <c r="A106" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" t="n">
+      <c r="D106" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F106" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="G106" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
+      <c r="A107" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" t="n">
+      <c r="D107" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E107" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K107" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>manned</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B109" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>manned</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G109" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K109" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>8</v>
-      </c>
-      <c r="E109" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
+        <is>
+          <t>anti-collision</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F111" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>9</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>7</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>anti-collision</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>10</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>7</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
+      <c r="A193" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="B193" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" s="2" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" t="n">
+      <c r="D193" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="E193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="F193" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" t="b">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K193" t="b">
-        <v>1</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="G193" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K193" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L193" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
+      <c r="A194" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B194" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" s="2" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" t="n">
+      <c r="D194" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" t="b">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K194" t="b">
-        <v>1</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K194" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L194" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
+      <c r="A195" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B195" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" t="n">
+      <c r="D195" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" t="b">
-        <v>1</v>
-      </c>
-      <c r="J195" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K195" t="b">
-        <v>1</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K195" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
+      <c r="A196" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="B196" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" s="2" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" t="n">
+      <c r="D196" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" t="b">
-        <v>1</v>
-      </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K196" t="b">
-        <v>1</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="E196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K196" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L196" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" t="n">
+      <c r="D198" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11838,104 +11838,104 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="F220" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" t="inlineStr">
+      <c r="D221" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="F221" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F248" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E249" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E250" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" t="n">
+      <c r="D251" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E251" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" t="n">
+      <c r="D252" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="E254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" t="n">
+      <c r="D255" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem4/67/word_level_predictions_67.xlsx
@@ -1126,156 +1126,156 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>AI</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Spot-Check</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Spot-Check</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3674,418 +3674,418 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D63" t="n">
+      <c r="D63" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D64" t="n">
+      <c r="D64" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D65" t="n">
+      <c r="D65" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D67" t="n">
+      <c r="D67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D68" t="n">
+      <c r="D68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D69" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5806,468 +5806,468 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" t="n">
         <v>7</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" t="n">
         <v>3</v>
       </c>
-      <c r="E104" s="2" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F104" s="2" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G104" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K104" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2" t="inlineStr">
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" t="n">
         <v>7</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" t="n">
         <v>4</v>
       </c>
-      <c r="E105" s="2" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F105" s="2" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G105" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K105" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L105" s="2" t="inlineStr">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" t="n">
         <v>7</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>display</t>
         </is>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" t="n">
         <v>5</v>
       </c>
-      <c r="E106" s="2" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F106" s="2" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G106" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K106" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2" t="inlineStr">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" t="n">
         <v>7</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C107" s="2" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="2" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L107" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" t="n">
         <v>7</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C108" s="2" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>manned</t>
         </is>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" t="n">
         <v>7</v>
       </c>
-      <c r="E108" s="2" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F108" s="2" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G108" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K108" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L108" s="2" t="inlineStr">
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" t="n">
         <v>7</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C109" s="2" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" t="n">
         <v>8</v>
       </c>
-      <c r="E109" s="2" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F109" s="2" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G109" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L109" s="2" t="inlineStr">
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>7</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" t="n">
         <v>9</v>
       </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>7</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>anti-collision</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" t="n">
         <v>10</v>
       </c>
-      <c r="E111" s="2" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F111" s="2" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>7</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>11</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10434,314 +10434,314 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" t="n">
         <v>12</v>
       </c>
-      <c r="B193" s="2" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C193" s="2" t="inlineStr">
+      <c r="C193" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="D193" s="2" t="n">
+      <c r="D193" t="n">
         <v>4</v>
       </c>
-      <c r="E193" s="2" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F193" s="2" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G193" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H193" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L193" s="2" t="inlineStr">
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" t="n">
         <v>12</v>
       </c>
-      <c r="B194" s="2" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C194" s="2" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>violate</t>
         </is>
       </c>
-      <c r="D194" s="2" t="n">
+      <c r="D194" t="n">
         <v>5</v>
       </c>
-      <c r="E194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F194" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G194" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H194" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L194" s="2" t="inlineStr">
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" t="n">
         <v>12</v>
       </c>
-      <c r="B195" s="2" t="inlineStr">
+      <c r="B195" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C195" s="2" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D195" s="2" t="n">
+      <c r="D195" t="n">
         <v>6</v>
       </c>
-      <c r="E195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F195" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G195" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H195" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L195" s="2" t="inlineStr">
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K195" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" t="n">
         <v>12</v>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>policies</t>
         </is>
       </c>
-      <c r="D196" s="2" t="n">
+      <c r="D196" t="n">
         <v>7</v>
       </c>
-      <c r="E196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L196" s="2" t="inlineStr">
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>1</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>12</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>8</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F197" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>12</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>9</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11838,104 +11838,104 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>14</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>0</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>14</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>No GPS Return to Home failed Return the aircraft to home manually .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E221" s="2" t="inlineStr">
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F221" s="2" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -13294,522 +13294,522 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>16</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>4</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>16</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>5</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F249" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>16</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>6</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>16</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
+      <c r="D251" t="n">
         <v>7</v>
       </c>
-      <c r="E251" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F251" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>16</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
+      <c r="D252" t="n">
         <v>8</v>
       </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>16</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>9</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>16</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>10</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>16</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
+      <c r="D255" t="n">
         <v>11</v>
       </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>16</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>12</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>16</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn Aircraft may be in violation of local laws and regulations Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>13</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
